--- a/MVPLT/data/综合打分.xlsx
+++ b/MVPLT/data/综合打分.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1260,19 +1260,239 @@
         <v>43111</v>
       </c>
       <c r="B44">
-        <v>0.1003295949054133</v>
+        <v>0.1003278868718941</v>
       </c>
       <c r="C44">
-        <v>0.5893430694398031</v>
+        <v>0.5893328252586024</v>
       </c>
       <c r="D44">
-        <v>0.04998463248730265</v>
+        <v>0.04998377077376214</v>
       </c>
       <c r="E44">
-        <v>0.1809642850901573</v>
+        <v>0.1809777908879822</v>
       </c>
       <c r="F44">
-        <v>0.0793784180773237</v>
+        <v>0.07937772620775915</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B45">
+        <v>0.1004948132497687</v>
+      </c>
+      <c r="C45">
+        <v>0.5890876765431219</v>
+      </c>
+      <c r="D45">
+        <v>0.05019289927695402</v>
+      </c>
+      <c r="E45">
+        <v>0.1809008708032732</v>
+      </c>
+      <c r="F45">
+        <v>0.07932374012688218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B46">
+        <v>0.09998276227028521</v>
+      </c>
+      <c r="C46">
+        <v>0.5893551257540739</v>
+      </c>
+      <c r="D46">
+        <v>0.0502295921938052</v>
+      </c>
+      <c r="E46">
+        <v>0.1810482594925377</v>
+      </c>
+      <c r="F46">
+        <v>0.07938426028929803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B47">
+        <v>0.1006941324869641</v>
+      </c>
+      <c r="C47">
+        <v>0.5890525693654166</v>
+      </c>
+      <c r="D47">
+        <v>0.04994654223419972</v>
+      </c>
+      <c r="E47">
+        <v>0.1809739624839068</v>
+      </c>
+      <c r="F47">
+        <v>0.07933279342951267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B48">
+        <v>0.1003988429615067</v>
+      </c>
+      <c r="C48">
+        <v>0.5890649776681635</v>
+      </c>
+      <c r="D48">
+        <v>0.0501628708093645</v>
+      </c>
+      <c r="E48">
+        <v>0.1810216858076643</v>
+      </c>
+      <c r="F48">
+        <v>0.07935162275330089</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B49">
+        <v>0.1008512477528861</v>
+      </c>
+      <c r="C49">
+        <v>0.5886415312552981</v>
+      </c>
+      <c r="D49">
+        <v>0.05018959968650458</v>
+      </c>
+      <c r="E49">
+        <v>0.1809920898857825</v>
+      </c>
+      <c r="F49">
+        <v>0.07932553141952857</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B50">
+        <v>0.1010376295299404</v>
+      </c>
+      <c r="C50">
+        <v>0.588745435221919</v>
+      </c>
+      <c r="D50">
+        <v>0.0498860277881145</v>
+      </c>
+      <c r="E50">
+        <v>0.1810056560267662</v>
+      </c>
+      <c r="F50">
+        <v>0.07932525143325991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B51">
+        <v>0.1020484340128733</v>
+      </c>
+      <c r="C51">
+        <v>0.5879676080082784</v>
+      </c>
+      <c r="D51">
+        <v>0.05001589766090302</v>
+      </c>
+      <c r="E51">
+        <v>0.1807928979000383</v>
+      </c>
+      <c r="F51">
+        <v>0.07917516241790711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B52">
+        <v>0.1027341985341747</v>
+      </c>
+      <c r="C52">
+        <v>0.5872905628935583</v>
+      </c>
+      <c r="D52">
+        <v>0.05031082483665869</v>
+      </c>
+      <c r="E52">
+        <v>0.1806068603304674</v>
+      </c>
+      <c r="F52">
+        <v>0.07905755340514088</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B53">
+        <v>0.1028999294546239</v>
+      </c>
+      <c r="C53">
+        <v>0.5867906791875465</v>
+      </c>
+      <c r="D53">
+        <v>0.05088255040090972</v>
+      </c>
+      <c r="E53">
+        <v>0.1804628119978836</v>
+      </c>
+      <c r="F53">
+        <v>0.07896402895903643</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B54">
+        <v>0.1024638055605289</v>
+      </c>
+      <c r="C54">
+        <v>0.5871502905974384</v>
+      </c>
+      <c r="D54">
+        <v>0.0508510957783905</v>
+      </c>
+      <c r="E54">
+        <v>0.1805363170451032</v>
+      </c>
+      <c r="F54">
+        <v>0.07899849101853906</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B55">
+        <v>0.1026747180404859</v>
+      </c>
+      <c r="C55">
+        <v>0.5868531025031727</v>
+      </c>
+      <c r="D55">
+        <v>0.05110071393974424</v>
+      </c>
+      <c r="E55">
+        <v>0.1804333639103473</v>
+      </c>
+      <c r="F55">
+        <v>0.0789381016062498</v>
       </c>
     </row>
   </sheetData>

--- a/MVPLT/data/综合打分.xlsx
+++ b/MVPLT/data/综合打分.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1480,19 +1480,599 @@
         <v>43126</v>
       </c>
       <c r="B55">
-        <v>0.1026747180404859</v>
+        <v>0.1026729530430865</v>
       </c>
       <c r="C55">
-        <v>0.5868531025031727</v>
+        <v>0.586842790707196</v>
       </c>
       <c r="D55">
-        <v>0.05110071393974424</v>
+        <v>0.05109982394637497</v>
       </c>
       <c r="E55">
-        <v>0.1804333639103473</v>
+        <v>0.1804470278974736</v>
       </c>
       <c r="F55">
-        <v>0.0789381016062498</v>
+        <v>0.07893740440586884</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B56">
+        <v>0.1527626047055184</v>
+      </c>
+      <c r="C56">
+        <v>0.5312923064000779</v>
+      </c>
+      <c r="D56">
+        <v>0.06867242572648752</v>
+      </c>
+      <c r="E56">
+        <v>0.07272727272727274</v>
+      </c>
+      <c r="F56">
+        <v>0.1745453904406435</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B57">
+        <v>0.1518932005532308</v>
+      </c>
+      <c r="C57">
+        <v>0.5321460051945258</v>
+      </c>
+      <c r="D57">
+        <v>0.06823005836747323</v>
+      </c>
+      <c r="E57">
+        <v>0.07280445680074982</v>
+      </c>
+      <c r="F57">
+        <v>0.1749262790840204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B58">
+        <v>0.1516693397330883</v>
+      </c>
+      <c r="C58">
+        <v>0.5323720794059121</v>
+      </c>
+      <c r="D58">
+        <v>0.06822488921707076</v>
+      </c>
+      <c r="E58">
+        <v>0.07279775341063756</v>
+      </c>
+      <c r="F58">
+        <v>0.1749359382332913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B59">
+        <v>0.1498626957600384</v>
+      </c>
+      <c r="C59">
+        <v>0.5331790821291723</v>
+      </c>
+      <c r="D59">
+        <v>0.06889125787325039</v>
+      </c>
+      <c r="E59">
+        <v>0.07285027120593793</v>
+      </c>
+      <c r="F59">
+        <v>0.175216693031601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B60">
+        <v>0.1505972644065077</v>
+      </c>
+      <c r="C60">
+        <v>0.533112437575623</v>
+      </c>
+      <c r="D60">
+        <v>0.06831225320750219</v>
+      </c>
+      <c r="E60">
+        <v>0.07283216975160448</v>
+      </c>
+      <c r="F60">
+        <v>0.1751458750587626</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B61">
+        <v>0.1507459601907684</v>
+      </c>
+      <c r="C61">
+        <v>0.5334725395358876</v>
+      </c>
+      <c r="D61">
+        <v>0.06763235810234912</v>
+      </c>
+      <c r="E61">
+        <v>0.07286831521910098</v>
+      </c>
+      <c r="F61">
+        <v>0.1752808269518938</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B62">
+        <v>0.1465638071021298</v>
+      </c>
+      <c r="C62">
+        <v>0.5364903526291432</v>
+      </c>
+      <c r="D62">
+        <v>0.06744616161755086</v>
+      </c>
+      <c r="E62">
+        <v>0.07306352140621838</v>
+      </c>
+      <c r="F62">
+        <v>0.1764361572449577</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B63">
+        <v>0.1445977219208446</v>
+      </c>
+      <c r="C63">
+        <v>0.5383765080078438</v>
+      </c>
+      <c r="D63">
+        <v>0.06660873477388708</v>
+      </c>
+      <c r="E63">
+        <v>0.07320171124250353</v>
+      </c>
+      <c r="F63">
+        <v>0.177215324054921</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
+        <v>43139</v>
+      </c>
+      <c r="B64">
+        <v>0.1440881551396443</v>
+      </c>
+      <c r="C64">
+        <v>0.538937291480747</v>
+      </c>
+      <c r="D64">
+        <v>0.06628151877738123</v>
+      </c>
+      <c r="E64">
+        <v>0.07324646290151358</v>
+      </c>
+      <c r="F64">
+        <v>0.1774465717007138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B65">
+        <v>0.1394118464774952</v>
+      </c>
+      <c r="C65">
+        <v>0.5426048253087323</v>
+      </c>
+      <c r="D65">
+        <v>0.06536026874625302</v>
+      </c>
+      <c r="E65">
+        <v>0.07354979180597437</v>
+      </c>
+      <c r="F65">
+        <v>0.1790732676615451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
+        <v>43143</v>
+      </c>
+      <c r="B66">
+        <v>0.1411872907039787</v>
+      </c>
+      <c r="C66">
+        <v>0.5415321562179973</v>
+      </c>
+      <c r="D66">
+        <v>0.06536593553983257</v>
+      </c>
+      <c r="E66">
+        <v>0.07343819225790442</v>
+      </c>
+      <c r="F66">
+        <v>0.1784764252802871</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B67">
+        <v>0.1423698786070434</v>
+      </c>
+      <c r="C67">
+        <v>0.5408147429387854</v>
+      </c>
+      <c r="D67">
+        <v>0.06533057941760195</v>
+      </c>
+      <c r="E67">
+        <v>0.07336982431253858</v>
+      </c>
+      <c r="F67">
+        <v>0.1781149747240307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B68">
+        <v>0.1429476496132264</v>
+      </c>
+      <c r="C68">
+        <v>0.5398508927342743</v>
+      </c>
+      <c r="D68">
+        <v>0.06628063409127195</v>
+      </c>
+      <c r="E68">
+        <v>0.07328505921350607</v>
+      </c>
+      <c r="F68">
+        <v>0.1776357643477213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>43153</v>
+      </c>
+      <c r="B69">
+        <v>0.145135291526285</v>
+      </c>
+      <c r="C69">
+        <v>0.5378285369410101</v>
+      </c>
+      <c r="D69">
+        <v>0.06735901775095748</v>
+      </c>
+      <c r="E69">
+        <v>0.0731127079315054</v>
+      </c>
+      <c r="F69">
+        <v>0.1765644458502421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>43154</v>
+      </c>
+      <c r="B70">
+        <v>0.1455556894537058</v>
+      </c>
+      <c r="C70">
+        <v>0.5374018221620737</v>
+      </c>
+      <c r="D70">
+        <v>0.06766791970844727</v>
+      </c>
+      <c r="E70">
+        <v>0.07306291934039386</v>
+      </c>
+      <c r="F70">
+        <v>0.1763116493353794</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B71">
+        <v>0.1470836454037774</v>
+      </c>
+      <c r="C71">
+        <v>0.5366170012807928</v>
+      </c>
+      <c r="D71">
+        <v>0.06774306667164783</v>
+      </c>
+      <c r="E71">
+        <v>0.07290484552839351</v>
+      </c>
+      <c r="F71">
+        <v>0.1756514411153885</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B72">
+        <v>0.1457243357056706</v>
+      </c>
+      <c r="C72">
+        <v>0.5378639601813621</v>
+      </c>
+      <c r="D72">
+        <v>0.06737201081376733</v>
+      </c>
+      <c r="E72">
+        <v>0.07296701758533831</v>
+      </c>
+      <c r="F72">
+        <v>0.1760726757138616</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B73">
+        <v>0.1451546271373918</v>
+      </c>
+      <c r="C73">
+        <v>0.538877931059406</v>
+      </c>
+      <c r="D73">
+        <v>0.06650711240247777</v>
+      </c>
+      <c r="E73">
+        <v>0.07302254422452475</v>
+      </c>
+      <c r="F73">
+        <v>0.1764377851761998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B74">
+        <v>0.1461005485481127</v>
+      </c>
+      <c r="C74">
+        <v>0.5385556298904497</v>
+      </c>
+      <c r="D74">
+        <v>0.06609315177205521</v>
+      </c>
+      <c r="E74">
+        <v>0.07298770805293162</v>
+      </c>
+      <c r="F74">
+        <v>0.1762629617364507</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B75">
+        <v>0.1452029537486995</v>
+      </c>
+      <c r="C75">
+        <v>0.5390065585951092</v>
+      </c>
+      <c r="D75">
+        <v>0.06625933147440904</v>
+      </c>
+      <c r="E75">
+        <v>0.07304252075719893</v>
+      </c>
+      <c r="F75">
+        <v>0.1764886354245834</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B76">
+        <v>0.1451148259071553</v>
+      </c>
+      <c r="C76">
+        <v>0.538509384777879</v>
+      </c>
+      <c r="D76">
+        <v>0.06708225124418025</v>
+      </c>
+      <c r="E76">
+        <v>0.07302567110704446</v>
+      </c>
+      <c r="F76">
+        <v>0.176267866963741</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B77">
+        <v>0.1465595055482525</v>
+      </c>
+      <c r="C77">
+        <v>0.5376333922418109</v>
+      </c>
+      <c r="D77">
+        <v>0.06702214151894946</v>
+      </c>
+      <c r="E77">
+        <v>0.07294403195422414</v>
+      </c>
+      <c r="F77">
+        <v>0.1758409287367629</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B78">
+        <v>0.1457545085766736</v>
+      </c>
+      <c r="C78">
+        <v>0.5387684397605337</v>
+      </c>
+      <c r="D78">
+        <v>0.06618136015270513</v>
+      </c>
+      <c r="E78">
+        <v>0.0730168516576072</v>
+      </c>
+      <c r="F78">
+        <v>0.1762788398524804</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B79">
+        <v>0.1469664336634882</v>
+      </c>
+      <c r="C79">
+        <v>0.5384465809120622</v>
+      </c>
+      <c r="D79">
+        <v>0.06552576928998288</v>
+      </c>
+      <c r="E79">
+        <v>0.07297412396754276</v>
+      </c>
+      <c r="F79">
+        <v>0.1760870921669239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B80">
+        <v>0.1478342632860161</v>
+      </c>
+      <c r="C80">
+        <v>0.5373840692806794</v>
+      </c>
+      <c r="D80">
+        <v>0.06633312467588302</v>
+      </c>
+      <c r="E80">
+        <v>0.07287983323469209</v>
+      </c>
+      <c r="F80">
+        <v>0.1755687095227294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B81">
+        <v>0.1487333893330288</v>
+      </c>
+      <c r="C81">
+        <v>0.5371841070588962</v>
+      </c>
+      <c r="D81">
+        <v>0.06583401189532773</v>
+      </c>
+      <c r="E81">
+        <v>0.07284944394053805</v>
+      </c>
+      <c r="F81">
+        <v>0.1753990477722092</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B82">
+        <v>0.1477688916881157</v>
+      </c>
+      <c r="C82">
+        <v>0.5377958878213962</v>
+      </c>
+      <c r="D82">
+        <v>0.06580163594848899</v>
+      </c>
+      <c r="E82">
+        <v>0.07292221625754189</v>
+      </c>
+      <c r="F82">
+        <v>0.1757113682844573</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B83">
+        <v>0.1470161341043783</v>
+      </c>
+      <c r="C83">
+        <v>0.5381531090831974</v>
+      </c>
+      <c r="D83">
+        <v>0.06601520130131038</v>
+      </c>
+      <c r="E83">
+        <v>0.072956532725433</v>
+      </c>
+      <c r="F83">
+        <v>0.1758590227856808</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B84">
+        <v>0.1474632731029209</v>
+      </c>
+      <c r="C84">
+        <v>0.5379440223142942</v>
+      </c>
+      <c r="D84">
+        <v>0.06592698201715869</v>
+      </c>
+      <c r="E84">
+        <v>0.07293275093608523</v>
+      </c>
+      <c r="F84">
+        <v>0.1757329716295409</v>
       </c>
     </row>
   </sheetData>

--- a/MVPLT/data/综合打分.xlsx
+++ b/MVPLT/data/综合打分.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1560,19 +1560,19 @@
         <v>43132</v>
       </c>
       <c r="B59">
-        <v>0.1498626957600384</v>
+        <v>0.1497987795056805</v>
       </c>
       <c r="C59">
-        <v>0.5331790821291723</v>
+        <v>0.5330129750623311</v>
       </c>
       <c r="D59">
-        <v>0.06889125787325039</v>
+        <v>0.06886110386705685</v>
       </c>
       <c r="E59">
-        <v>0.07285027120593793</v>
+        <v>0.07284599263048887</v>
       </c>
       <c r="F59">
-        <v>0.175216693031601</v>
+        <v>0.1754811489344426</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1580,19 +1580,19 @@
         <v>43133</v>
       </c>
       <c r="B60">
-        <v>0.1505972644065077</v>
+        <v>0.1505330639566085</v>
       </c>
       <c r="C60">
-        <v>0.533112437575623</v>
+        <v>0.5329464163395555</v>
       </c>
       <c r="D60">
-        <v>0.06831225320750219</v>
+        <v>0.06828236605235433</v>
       </c>
       <c r="E60">
-        <v>0.07283216975160448</v>
+        <v>0.07282789374527758</v>
       </c>
       <c r="F60">
-        <v>0.1751458750587626</v>
+        <v>0.1754102599062043</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1600,19 +1600,19 @@
         <v>43136</v>
       </c>
       <c r="B61">
-        <v>0.1507459601907684</v>
+        <v>0.1506816306101361</v>
       </c>
       <c r="C61">
-        <v>0.5334725395358876</v>
+        <v>0.5333062526153358</v>
       </c>
       <c r="D61">
-        <v>0.06763235810234912</v>
+        <v>0.06760273893870504</v>
       </c>
       <c r="E61">
-        <v>0.07286831521910098</v>
+        <v>0.07286403642728338</v>
       </c>
       <c r="F61">
-        <v>0.1752808269518938</v>
+        <v>0.1755453414085397</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1620,19 +1620,19 @@
         <v>43137</v>
       </c>
       <c r="B62">
-        <v>0.1465638071021298</v>
+        <v>0.1465007297368972</v>
       </c>
       <c r="C62">
-        <v>0.5364903526291432</v>
+        <v>0.5363218841834736</v>
       </c>
       <c r="D62">
-        <v>0.06744616161755086</v>
+        <v>0.06741637842540857</v>
       </c>
       <c r="E62">
-        <v>0.07306352140621838</v>
+        <v>0.07305922044347658</v>
       </c>
       <c r="F62">
-        <v>0.1764361572449577</v>
+        <v>0.1767017872107441</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1640,19 +1640,19 @@
         <v>43138</v>
       </c>
       <c r="B63">
-        <v>0.1445977219208446</v>
+        <v>0.1445351395110406</v>
       </c>
       <c r="C63">
-        <v>0.5383765080078438</v>
+        <v>0.5382066042426602</v>
       </c>
       <c r="D63">
-        <v>0.06660873477388708</v>
+        <v>0.06657915914310841</v>
       </c>
       <c r="E63">
-        <v>0.07320171124250353</v>
+        <v>0.07319739461683254</v>
       </c>
       <c r="F63">
-        <v>0.177215324054921</v>
+        <v>0.1774817024863583</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1660,19 +1660,19 @@
         <v>43139</v>
       </c>
       <c r="B64">
-        <v>0.1440881551396443</v>
+        <v>0.1440256888713187</v>
       </c>
       <c r="C64">
-        <v>0.538937291480747</v>
+        <v>0.5387669581527156</v>
       </c>
       <c r="D64">
-        <v>0.06628151877738123</v>
+        <v>0.06625204029681112</v>
       </c>
       <c r="E64">
-        <v>0.07324646290151358</v>
+        <v>0.07324214153089607</v>
       </c>
       <c r="F64">
-        <v>0.1774465717007138</v>
+        <v>0.1777131711482585</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1680,19 +1680,19 @@
         <v>43140</v>
       </c>
       <c r="B65">
-        <v>0.1394118464774952</v>
+        <v>0.1393507065824521</v>
       </c>
       <c r="C65">
-        <v>0.5426048253087323</v>
+        <v>0.5424315701622094</v>
       </c>
       <c r="D65">
-        <v>0.06536026874625302</v>
+        <v>0.06533087012834876</v>
       </c>
       <c r="E65">
-        <v>0.07354979180597437</v>
+        <v>0.07354543539077341</v>
       </c>
       <c r="F65">
-        <v>0.1790732676615451</v>
+        <v>0.1793414177362163</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1700,19 +1700,19 @@
         <v>43143</v>
       </c>
       <c r="B66">
-        <v>0.1411872907039787</v>
+        <v>0.1411256232176753</v>
       </c>
       <c r="C66">
-        <v>0.5415321562179973</v>
+        <v>0.5413598716782804</v>
       </c>
       <c r="D66">
-        <v>0.06536593553983257</v>
+        <v>0.06533665141187876</v>
       </c>
       <c r="E66">
-        <v>0.07343819225790442</v>
+        <v>0.07343385044084333</v>
       </c>
       <c r="F66">
-        <v>0.1784764252802871</v>
+        <v>0.1787440032513223</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1720,19 +1720,19 @@
         <v>43144</v>
       </c>
       <c r="B67">
-        <v>0.1423698786070434</v>
+        <v>0.142307850128998</v>
       </c>
       <c r="C67">
-        <v>0.5408147429387854</v>
+        <v>0.5406430696603238</v>
       </c>
       <c r="D67">
-        <v>0.06533057941760195</v>
+        <v>0.06530138291446823</v>
       </c>
       <c r="E67">
-        <v>0.07336982431253858</v>
+        <v>0.07336549099927475</v>
       </c>
       <c r="F67">
-        <v>0.1781149747240307</v>
+        <v>0.1783822062969352</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1740,19 +1740,19 @@
         <v>43145</v>
       </c>
       <c r="B68">
-        <v>0.1429476496132264</v>
+        <v>0.142885577102696</v>
       </c>
       <c r="C68">
-        <v>0.5398508927342743</v>
+        <v>0.5396800406163592</v>
       </c>
       <c r="D68">
-        <v>0.06628063409127195</v>
+        <v>0.06625110978603463</v>
       </c>
       <c r="E68">
-        <v>0.07328505921350607</v>
+        <v>0.07328073640594759</v>
       </c>
       <c r="F68">
-        <v>0.1776357643477213</v>
+        <v>0.1779025360889625</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1760,19 +1760,19 @@
         <v>43153</v>
       </c>
       <c r="B69">
-        <v>0.145135291526285</v>
+        <v>0.1450727326877616</v>
       </c>
       <c r="C69">
-        <v>0.5378285369410101</v>
+        <v>0.5376594487569268</v>
       </c>
       <c r="D69">
-        <v>0.06735901775095748</v>
+        <v>0.06732922965863473</v>
       </c>
       <c r="E69">
-        <v>0.0731127079315054</v>
+        <v>0.07310840923808792</v>
       </c>
       <c r="F69">
-        <v>0.1765644458502421</v>
+        <v>0.176830179658589</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1780,19 +1780,19 @@
         <v>43154</v>
       </c>
       <c r="B70">
-        <v>0.1455556894537058</v>
+        <v>0.1454930578877511</v>
       </c>
       <c r="C70">
-        <v>0.5374018221620737</v>
+        <v>0.5372331326761541</v>
       </c>
       <c r="D70">
-        <v>0.06766791970844727</v>
+        <v>0.06763804581796393</v>
       </c>
       <c r="E70">
-        <v>0.07306291934039386</v>
+        <v>0.07305862698105442</v>
       </c>
       <c r="F70">
-        <v>0.1763116493353794</v>
+        <v>0.1765771366370765</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1800,19 +1800,19 @@
         <v>43157</v>
       </c>
       <c r="B71">
-        <v>0.1470836454037774</v>
+        <v>0.1470206320655651</v>
       </c>
       <c r="C71">
-        <v>0.5366170012807928</v>
+        <v>0.5364492294734786</v>
       </c>
       <c r="D71">
-        <v>0.06774306667164783</v>
+        <v>0.06771328798768929</v>
       </c>
       <c r="E71">
-        <v>0.07290484552839351</v>
+        <v>0.07290057308851741</v>
       </c>
       <c r="F71">
-        <v>0.1756514411153885</v>
+        <v>0.1759162773847495</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1820,19 +1820,19 @@
         <v>43158</v>
       </c>
       <c r="B72">
-        <v>0.1457243357056706</v>
+        <v>0.1456617066542847</v>
       </c>
       <c r="C72">
-        <v>0.5378639601813621</v>
+        <v>0.5376953353999601</v>
       </c>
       <c r="D72">
-        <v>0.06737201081376733</v>
+        <v>0.06734230366642462</v>
       </c>
       <c r="E72">
-        <v>0.07296701758533831</v>
+        <v>0.07296273843977326</v>
       </c>
       <c r="F72">
-        <v>0.1760726757138616</v>
+        <v>0.1763379158395574</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1840,19 +1840,19 @@
         <v>43159</v>
       </c>
       <c r="B73">
-        <v>0.1451546271373918</v>
+        <v>0.1450920734716462</v>
       </c>
       <c r="C73">
-        <v>0.538877931059406</v>
+        <v>0.5387085836018138</v>
       </c>
       <c r="D73">
-        <v>0.06650711240247777</v>
+        <v>0.0664777089439854</v>
       </c>
       <c r="E73">
-        <v>0.07302254422452475</v>
+        <v>0.07301825908898417</v>
       </c>
       <c r="F73">
-        <v>0.1764377851761998</v>
+        <v>0.1767033748935702</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1860,19 +1860,19 @@
         <v>43160</v>
       </c>
       <c r="B74">
-        <v>0.1461005485481127</v>
+        <v>0.1460376630273936</v>
       </c>
       <c r="C74">
-        <v>0.5385556298904497</v>
+        <v>0.5383865627511618</v>
       </c>
       <c r="D74">
-        <v>0.06609315177205521</v>
+        <v>0.06606396587958513</v>
       </c>
       <c r="E74">
-        <v>0.07298770805293162</v>
+        <v>0.07298342744191701</v>
       </c>
       <c r="F74">
-        <v>0.1762629617364507</v>
+        <v>0.1765283808999424</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1880,19 +1880,19 @@
         <v>43161</v>
       </c>
       <c r="B75">
-        <v>0.1452029537486995</v>
+        <v>0.145140355054153</v>
       </c>
       <c r="C75">
-        <v>0.5390065585951092</v>
+        <v>0.5388371108309014</v>
       </c>
       <c r="D75">
-        <v>0.06625933147440904</v>
+        <v>0.06623002653542927</v>
       </c>
       <c r="E75">
-        <v>0.07304252075719893</v>
+        <v>0.07303823428296245</v>
       </c>
       <c r="F75">
-        <v>0.1764886354245834</v>
+        <v>0.1767542732965538</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1900,19 +1900,19 @@
         <v>43164</v>
       </c>
       <c r="B76">
-        <v>0.1451148259071553</v>
+        <v>0.1450523626072334</v>
       </c>
       <c r="C76">
-        <v>0.538509384777879</v>
+        <v>0.5383403306714896</v>
       </c>
       <c r="D76">
-        <v>0.06708225124418025</v>
+        <v>0.0670526275579051</v>
       </c>
       <c r="E76">
-        <v>0.07302567110704446</v>
+        <v>0.07302138810548274</v>
       </c>
       <c r="F76">
-        <v>0.176267866963741</v>
+        <v>0.1765332910578893</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1920,19 +1920,19 @@
         <v>43165</v>
       </c>
       <c r="B77">
-        <v>0.1465595055482525</v>
+        <v>0.1464966096632049</v>
       </c>
       <c r="C77">
-        <v>0.5376333922418109</v>
+        <v>0.5374650622910354</v>
       </c>
       <c r="D77">
-        <v>0.06702214151894946</v>
+        <v>0.06699263141116042</v>
       </c>
       <c r="E77">
-        <v>0.07294403195422414</v>
+        <v>0.07293975891786469</v>
       </c>
       <c r="F77">
-        <v>0.1758409287367629</v>
+        <v>0.1761059377167345</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1940,19 +1940,19 @@
         <v>43166</v>
       </c>
       <c r="B78">
-        <v>0.1457545085766736</v>
+        <v>0.1456917567253779</v>
       </c>
       <c r="C78">
-        <v>0.5387684397605337</v>
+        <v>0.5385992739683158</v>
       </c>
       <c r="D78">
-        <v>0.06618136015270513</v>
+        <v>0.06615212863470261</v>
       </c>
       <c r="E78">
-        <v>0.0730168516576072</v>
+        <v>0.07301257062277965</v>
       </c>
       <c r="F78">
-        <v>0.1762788398524804</v>
+        <v>0.1765442700488241</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1960,19 +1960,19 @@
         <v>43167</v>
       </c>
       <c r="B79">
-        <v>0.1469664336634882</v>
+        <v>0.1469032426659678</v>
       </c>
       <c r="C79">
-        <v>0.5384465809120622</v>
+        <v>0.5382777099127836</v>
       </c>
       <c r="D79">
-        <v>0.06552576928998288</v>
+        <v>0.06549686451156918</v>
       </c>
       <c r="E79">
-        <v>0.07297412396754276</v>
+        <v>0.07296984835289561</v>
       </c>
       <c r="F79">
-        <v>0.1760870921669239</v>
+        <v>0.1763523345567838</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1980,19 +1980,19 @@
         <v>43168</v>
       </c>
       <c r="B80">
-        <v>0.1478342632860161</v>
+        <v>0.1477709312219065</v>
       </c>
       <c r="C80">
-        <v>0.5373840692806794</v>
+        <v>0.5372160835947158</v>
       </c>
       <c r="D80">
-        <v>0.06633312467588302</v>
+        <v>0.06630396841489355</v>
       </c>
       <c r="E80">
-        <v>0.07287983323469209</v>
+        <v>0.07287556912158753</v>
       </c>
       <c r="F80">
-        <v>0.1755687095227294</v>
+        <v>0.1758334476468968</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2000,19 +2000,19 @@
         <v>43171</v>
       </c>
       <c r="B81">
-        <v>0.1487333893330288</v>
+        <v>0.1486697424022264</v>
       </c>
       <c r="C81">
-        <v>0.5371841070588962</v>
+        <v>0.5370163491296497</v>
       </c>
       <c r="D81">
-        <v>0.06583401189532773</v>
+        <v>0.06580510655645522</v>
       </c>
       <c r="E81">
-        <v>0.07284944394053805</v>
+        <v>0.07284518477776078</v>
       </c>
       <c r="F81">
-        <v>0.1753990477722092</v>
+        <v>0.1756636171339078</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2020,19 +2020,19 @@
         <v>43172</v>
       </c>
       <c r="B82">
-        <v>0.1477688916881157</v>
+        <v>0.1477055180313302</v>
       </c>
       <c r="C82">
-        <v>0.5377958878213962</v>
+        <v>0.5376276082363457</v>
       </c>
       <c r="D82">
-        <v>0.06580163594848899</v>
+        <v>0.06577268237259833</v>
       </c>
       <c r="E82">
-        <v>0.07292221625754189</v>
+        <v>0.07291794914532182</v>
       </c>
       <c r="F82">
-        <v>0.1757113682844573</v>
+        <v>0.1759762422144039</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2040,19 +2040,19 @@
         <v>43173</v>
       </c>
       <c r="B83">
-        <v>0.1470161341043783</v>
+        <v>0.146953015427969</v>
       </c>
       <c r="C83">
-        <v>0.5381531090831974</v>
+        <v>0.5379845597834865</v>
       </c>
       <c r="D83">
-        <v>0.06601520130131038</v>
+        <v>0.0659861231868451</v>
       </c>
       <c r="E83">
-        <v>0.072956532725433</v>
+        <v>0.07295226214389823</v>
       </c>
       <c r="F83">
-        <v>0.1758590227856808</v>
+        <v>0.1761240394578013</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2060,19 +2060,299 @@
         <v>43174</v>
       </c>
       <c r="B84">
-        <v>0.1474632731029209</v>
+        <v>0.1474000167998613</v>
       </c>
       <c r="C84">
-        <v>0.5379440223142942</v>
+        <v>0.5377756677589421</v>
       </c>
       <c r="D84">
-        <v>0.06592698201715869</v>
+        <v>0.06589796726573638</v>
       </c>
       <c r="E84">
-        <v>0.07293275093608523</v>
+        <v>0.07292848360030413</v>
       </c>
       <c r="F84">
-        <v>0.1757329716295409</v>
+        <v>0.175997864575156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B85">
+        <v>0.0903099663300858</v>
+      </c>
+      <c r="C85">
+        <v>0.7215382113440674</v>
+      </c>
+      <c r="D85">
+        <v>0.02252886514752678</v>
+      </c>
+      <c r="E85">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="F85">
+        <v>0.07471386626922906</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B86">
+        <v>0.09059906230525606</v>
+      </c>
+      <c r="C86">
+        <v>0.7214533678004438</v>
+      </c>
+      <c r="D86">
+        <v>0.02235446666834277</v>
+      </c>
+      <c r="E86">
+        <v>0.09090624581275772</v>
+      </c>
+      <c r="F86">
+        <v>0.07468685741319968</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B87">
+        <v>0.09065786142084577</v>
+      </c>
+      <c r="C87">
+        <v>0.721281727758379</v>
+      </c>
+      <c r="D87">
+        <v>0.0225833353451132</v>
+      </c>
+      <c r="E87">
+        <v>0.09084795287373684</v>
+      </c>
+      <c r="F87">
+        <v>0.07462912260192513</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B88">
+        <v>0.09018529899345357</v>
+      </c>
+      <c r="C88">
+        <v>0.7214320364503825</v>
+      </c>
+      <c r="D88">
+        <v>0.02294740663096764</v>
+      </c>
+      <c r="E88">
+        <v>0.0908290028464027</v>
+      </c>
+      <c r="F88">
+        <v>0.07460625507879375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2">
+        <v>43181</v>
+      </c>
+      <c r="B89">
+        <v>0.08943998659620916</v>
+      </c>
+      <c r="C89">
+        <v>0.7222716158596122</v>
+      </c>
+      <c r="D89">
+        <v>0.02279638121477135</v>
+      </c>
+      <c r="E89">
+        <v>0.09086469533248849</v>
+      </c>
+      <c r="F89">
+        <v>0.07462732099691897</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B90">
+        <v>0.08646811773454598</v>
+      </c>
+      <c r="C90">
+        <v>0.7247545879609519</v>
+      </c>
+      <c r="D90">
+        <v>0.02307706891780229</v>
+      </c>
+      <c r="E90">
+        <v>0.09098122484801982</v>
+      </c>
+      <c r="F90">
+        <v>0.07471900053867987</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B91">
+        <v>0.08646239051158983</v>
+      </c>
+      <c r="C91">
+        <v>0.7248836990948587</v>
+      </c>
+      <c r="D91">
+        <v>0.02298345183542332</v>
+      </c>
+      <c r="E91">
+        <v>0.09097850924388097</v>
+      </c>
+      <c r="F91">
+        <v>0.07469194931424722</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B92">
+        <v>0.08743881445224963</v>
+      </c>
+      <c r="C92">
+        <v>0.7240611936837481</v>
+      </c>
+      <c r="D92">
+        <v>0.02294596095052046</v>
+      </c>
+      <c r="E92">
+        <v>0.09092032313727859</v>
+      </c>
+      <c r="F92">
+        <v>0.07463370777620321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2">
+        <v>43187</v>
+      </c>
+      <c r="B93">
+        <v>0.08615831073447834</v>
+      </c>
+      <c r="C93">
+        <v>0.7252507201835167</v>
+      </c>
+      <c r="D93">
+        <v>0.02282512588550702</v>
+      </c>
+      <c r="E93">
+        <v>0.09103908142576017</v>
+      </c>
+      <c r="F93">
+        <v>0.07472676177073796</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B94">
+        <v>0.08712155513938952</v>
+      </c>
+      <c r="C94">
+        <v>0.7243655096362241</v>
+      </c>
+      <c r="D94">
+        <v>0.02294216881734892</v>
+      </c>
+      <c r="E94">
+        <v>0.09093853642874143</v>
+      </c>
+      <c r="F94">
+        <v>0.07463222997829598</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B95">
+        <v>0.0874337891178375</v>
+      </c>
+      <c r="C95">
+        <v>0.7241735815259656</v>
+      </c>
+      <c r="D95">
+        <v>0.02292531346491818</v>
+      </c>
+      <c r="E95">
+        <v>0.09088790050560182</v>
+      </c>
+      <c r="F95">
+        <v>0.07457941538567701</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B96">
+        <v>0.08727229818819954</v>
+      </c>
+      <c r="C96">
+        <v>0.7247014878350363</v>
+      </c>
+      <c r="D96">
+        <v>0.02253242283387194</v>
+      </c>
+      <c r="E96">
+        <v>0.09091659246998444</v>
+      </c>
+      <c r="F96">
+        <v>0.07457719867290775</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B97">
+        <v>0.08665085997630702</v>
+      </c>
+      <c r="C97">
+        <v>0.7251877225485631</v>
+      </c>
+      <c r="D97">
+        <v>0.02263087310393205</v>
+      </c>
+      <c r="E97">
+        <v>0.09094059642976114</v>
+      </c>
+      <c r="F97">
+        <v>0.07458994794143654</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
+        <v>43194</v>
+      </c>
+      <c r="B98">
+        <v>0.08634802869691348</v>
+      </c>
+      <c r="C98">
+        <v>0.725581835390275</v>
+      </c>
+      <c r="D98">
+        <v>0.02256713566948592</v>
+      </c>
+      <c r="E98">
+        <v>0.09093079971945427</v>
+      </c>
+      <c r="F98">
+        <v>0.07457220052387135</v>
       </c>
     </row>
   </sheetData>
